--- a/REGULAR/DSWD/SEÑA,MARILYN B.xlsx
+++ b/REGULAR/DSWD/SEÑA,MARILYN B.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA40C18-0BAC-4DA9-A27C-DBE111892C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="374">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1154,12 +1153,15 @@
   </si>
   <si>
     <t>10/15-19/2014</t>
+  </si>
+  <si>
+    <t>10/9,10,12,13/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2028,7 +2030,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2073,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2137,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2197,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2263,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2326,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2424,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2483,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2548,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2591,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2666,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2852,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2916,7 +2918,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +2976,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3042,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3098,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3173,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3216,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3282,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3338,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,7 +3436,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +3499,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +3548,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3563,25 +3565,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K605" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K605" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3593,13 +3595,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3608,14 +3610,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3919,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3929,7 +3931,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3937,34 +3939,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2688" topLeftCell="A580"/>
+      <pane ySplit="2685" topLeftCell="A577" activePane="bottomLeft"/>
       <selection activeCell="E3" sqref="E2:E3"/>
-      <selection pane="bottomLeft" activeCell="C587" sqref="C587"/>
+      <selection pane="bottomLeft" activeCell="E594" sqref="E594"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3985,7 +3987,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4003,7 +4005,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4021,7 +4023,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4029,7 +4031,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4042,7 +4044,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4059,7 +4061,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4103,7 +4105,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.314099999999996</v>
+        <v>76.314099999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4113,12 +4115,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245.25</v>
+        <v>250.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>105</v>
       </c>
@@ -4137,7 +4139,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>33619</v>
       </c>
@@ -4157,7 +4159,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>33635</v>
       </c>
@@ -4177,7 +4179,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>33664</v>
@@ -4198,7 +4200,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A82" si="0">EDATE(A13,1)</f>
         <v>33695</v>
@@ -4219,7 +4221,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>33725</v>
@@ -4240,7 +4242,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>33756</v>
@@ -4261,7 +4263,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>33786</v>
@@ -4282,7 +4284,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>33817</v>
@@ -4303,7 +4305,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>33848</v>
@@ -4324,7 +4326,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>33878</v>
@@ -4345,7 +4347,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>33909</v>
@@ -4366,7 +4368,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>33939</v>
@@ -4391,7 +4393,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>119</v>
       </c>
@@ -4413,7 +4415,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>33970</v>
@@ -4434,7 +4436,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>34001</v>
@@ -4455,7 +4457,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>34029</v>
@@ -4476,7 +4478,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>34060</v>
@@ -4497,7 +4499,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>34090</v>
@@ -4518,7 +4520,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>34121</v>
@@ -4539,7 +4541,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>34151</v>
@@ -4560,7 +4562,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>34182</v>
@@ -4581,7 +4583,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>34213</v>
@@ -4602,7 +4604,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>34243</v>
@@ -4623,7 +4625,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>34274</v>
@@ -4644,7 +4646,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>34304</v>
@@ -4669,7 +4671,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>120</v>
       </c>
@@ -4691,7 +4693,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>34335</v>
@@ -4712,7 +4714,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>34366</v>
@@ -4733,7 +4735,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>34394</v>
@@ -4754,7 +4756,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>34425</v>
@@ -4775,7 +4777,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>34455</v>
@@ -4796,7 +4798,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>34486</v>
@@ -4817,7 +4819,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>34516</v>
@@ -4838,7 +4840,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>34547</v>
@@ -4859,7 +4861,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>34578</v>
@@ -4880,7 +4882,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>34608</v>
@@ -4901,7 +4903,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>34639</v>
@@ -4922,7 +4924,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>34669</v>
@@ -4947,7 +4949,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>121</v>
       </c>
@@ -4969,7 +4971,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f>EDATE(A48,1)</f>
         <v>34700</v>
@@ -4990,7 +4992,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>34731</v>
@@ -5011,7 +5013,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>34759</v>
@@ -5032,7 +5034,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -5053,7 +5055,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -5074,7 +5076,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -5095,7 +5097,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -5116,7 +5118,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -5137,7 +5139,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -5158,7 +5160,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -5179,7 +5181,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -5200,7 +5202,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -5225,7 +5227,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>122</v>
       </c>
@@ -5247,7 +5249,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f>EDATE(A61,1)</f>
         <v>35065</v>
@@ -5268,7 +5270,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -5289,7 +5291,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -5310,7 +5312,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -5331,7 +5333,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -5352,7 +5354,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -5373,7 +5375,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -5394,7 +5396,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -5415,7 +5417,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -5436,7 +5438,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -5457,7 +5459,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -5478,7 +5480,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -5503,7 +5505,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>123</v>
       </c>
@@ -5525,7 +5527,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f>EDATE(A74,1)</f>
         <v>35431</v>
@@ -5546,7 +5548,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -5567,7 +5569,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -5588,7 +5590,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -5609,7 +5611,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -5630,7 +5632,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -5651,7 +5653,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -5672,7 +5674,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" ref="A83:A190" si="1">EDATE(A82,1)</f>
         <v>35643</v>
@@ -5693,7 +5695,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -5714,7 +5716,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -5735,7 +5737,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="1"/>
         <v>35735</v>
@@ -5756,7 +5758,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -5781,7 +5783,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>124</v>
       </c>
@@ -5803,7 +5805,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>35796</v>
@@ -5824,7 +5826,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>35827</v>
@@ -5845,7 +5847,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="1"/>
         <v>35855</v>
@@ -5866,7 +5868,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -5887,7 +5889,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -5908,7 +5910,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -5933,7 +5935,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5958,7 +5960,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f>EDATE(A95,1)</f>
         <v>36008</v>
@@ -5985,7 +5987,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>129</v>
@@ -6007,7 +6009,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>130</v>
@@ -6027,7 +6029,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f>EDATE(A96,1)</f>
         <v>36039</v>
@@ -6052,7 +6054,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A99,1)</f>
         <v>36069</v>
@@ -6079,7 +6081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>133</v>
@@ -6096,7 +6098,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>36100</v>
@@ -6121,7 +6123,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -6148,7 +6150,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>135</v>
@@ -6168,7 +6170,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>125</v>
       </c>
@@ -6190,7 +6192,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A103,1)</f>
         <v>36161</v>
@@ -6215,7 +6217,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="1"/>
         <v>36192</v>
@@ -6240,7 +6242,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -6267,7 +6269,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>143</v>
@@ -6287,7 +6289,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f>EDATE(A108,1)</f>
         <v>36251</v>
@@ -6312,7 +6314,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -6339,7 +6341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>130</v>
@@ -6359,7 +6361,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>36312</v>
@@ -6386,7 +6388,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>144</v>
@@ -6406,7 +6408,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>36342</v>
@@ -6431,7 +6433,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -6458,7 +6460,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -6483,7 +6485,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>85</v>
@@ -6505,7 +6507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>147</v>
@@ -6525,7 +6527,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A117,1)</f>
         <v>36434</v>
@@ -6550,7 +6552,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -6575,7 +6577,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -6600,7 +6602,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>48</v>
@@ -6620,7 +6622,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>126</v>
       </c>
@@ -6642,7 +6644,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A122,1)</f>
         <v>36526</v>
@@ -6667,7 +6669,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f t="shared" si="1"/>
         <v>36557</v>
@@ -6694,7 +6696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>151</v>
@@ -6711,7 +6713,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A126,1)</f>
         <v>36586</v>
@@ -6738,7 +6740,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>157</v>
@@ -6758,7 +6760,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f>EDATE(A128,1)</f>
         <v>36617</v>
@@ -6785,7 +6787,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>164</v>
@@ -6805,7 +6807,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>50</v>
@@ -6825,7 +6827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A130,1)</f>
         <v>36647</v>
@@ -6850,7 +6852,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -6875,7 +6877,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -6900,7 +6902,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>159</v>
@@ -6922,7 +6924,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>36739</v>
@@ -6949,7 +6951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>146</v>
@@ -6969,7 +6971,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f>EDATE(A137,1)</f>
         <v>36770</v>
@@ -6996,7 +6998,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>161</v>
@@ -7016,7 +7018,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f>EDATE(A139,1)</f>
         <v>36800</v>
@@ -7043,7 +7045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>162</v>
@@ -7060,7 +7062,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f>EDATE(A141,1)</f>
         <v>36831</v>
@@ -7085,7 +7087,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -7110,7 +7112,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>136</v>
@@ -7130,7 +7132,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>127</v>
       </c>
@@ -7152,7 +7154,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f>EDATE(A144,1)</f>
         <v>36892</v>
@@ -7179,7 +7181,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>132</v>
@@ -7198,7 +7200,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>174</v>
@@ -7215,7 +7217,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>50</v>
@@ -7235,7 +7237,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f>EDATE(A147,1)</f>
         <v>36923</v>
@@ -7260,7 +7262,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -7287,7 +7289,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>159</v>
@@ -7307,7 +7309,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f>EDATE(A152,1)</f>
         <v>36982</v>
@@ -7334,7 +7336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>176</v>
@@ -7354,7 +7356,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f>EDATE(A154,1)</f>
         <v>37012</v>
@@ -7381,7 +7383,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>177</v>
@@ -7401,7 +7403,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f>EDATE(A156,1)</f>
         <v>37043</v>
@@ -7426,7 +7428,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -7453,7 +7455,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>68</v>
@@ -7475,7 +7477,7 @@
         <v>37091</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>134</v>
@@ -7495,7 +7497,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -7515,7 +7517,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f>EDATE(A159,1)</f>
         <v>37104</v>
@@ -7542,7 +7544,7 @@
         <v>37117</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>179</v>
@@ -7562,7 +7564,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f>EDATE(A163,1)</f>
         <v>37135</v>
@@ -7589,7 +7591,7 @@
         <v>37151</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>180</v>
@@ -7611,7 +7613,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>181</v>
@@ -7631,7 +7633,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f>EDATE(A165,1)</f>
         <v>37165</v>
@@ -7658,7 +7660,7 @@
         <v>37177</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>179</v>
@@ -7678,7 +7680,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="50"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <f>EDATE(A168,1)</f>
         <v>37196</v>
@@ -7705,7 +7707,7 @@
         <v>37208</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>68</v>
@@ -7727,7 +7729,7 @@
         <v>37216</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>189</v>
@@ -7747,7 +7749,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A170,1)</f>
         <v>37226</v>
@@ -7774,7 +7776,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>190</v>
@@ -7794,7 +7796,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>118</v>
       </c>
@@ -7816,7 +7818,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <f>EDATE(A173,1)</f>
         <v>37257</v>
@@ -7843,7 +7845,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>85</v>
@@ -7865,7 +7867,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>191</v>
@@ -7885,7 +7887,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A176,1)</f>
         <v>37288</v>
@@ -7912,7 +7914,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>192</v>
@@ -7932,7 +7934,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <f>EDATE(A179,1)</f>
         <v>37316</v>
@@ -7959,7 +7961,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>158</v>
@@ -7979,7 +7981,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>50</v>
@@ -7999,7 +8001,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f>EDATE(A181,1)</f>
         <v>37347</v>
@@ -8020,7 +8022,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -8045,7 +8047,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -8070,7 +8072,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -8097,7 +8099,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -8118,7 +8120,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -8145,7 +8147,7 @@
         <v>37522</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -8172,7 +8174,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>68</v>
@@ -8191,7 +8193,7 @@
         <v>37545</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>132</v>
@@ -8210,7 +8212,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>85</v>
@@ -8229,7 +8231,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A190,1)</f>
         <v>37561</v>
@@ -8256,7 +8258,7 @@
         <v>37571</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <f t="shared" ref="A195:A232" si="2">EDATE(A194,1)</f>
         <v>37591</v>
@@ -8277,7 +8279,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="48" t="s">
         <v>117</v>
       </c>
@@ -8299,7 +8301,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <f>EDATE(A195,1)</f>
         <v>37622</v>
@@ -8326,7 +8328,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <f t="shared" si="2"/>
         <v>37653</v>
@@ -8353,7 +8355,7 @@
         <v>37658</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f t="shared" si="2"/>
         <v>37681</v>
@@ -8380,7 +8382,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>50</v>
@@ -8400,7 +8402,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f>EDATE(A199,1)</f>
         <v>37712</v>
@@ -8427,7 +8429,7 @@
         <v>37722</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>68</v>
@@ -8449,7 +8451,7 @@
         <v>37741</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>37742</v>
@@ -8470,7 +8472,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <f t="shared" si="2"/>
         <v>37773</v>
@@ -8491,7 +8493,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f t="shared" si="2"/>
         <v>37803</v>
@@ -8512,7 +8514,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f t="shared" si="2"/>
         <v>37834</v>
@@ -8539,7 +8541,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>208</v>
@@ -8561,7 +8563,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>50</v>
@@ -8581,7 +8583,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f>EDATE(A206,1)</f>
         <v>37865</v>
@@ -8606,7 +8608,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f t="shared" si="2"/>
         <v>37895</v>
@@ -8633,7 +8635,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>132</v>
@@ -8653,7 +8655,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>210</v>
@@ -8673,7 +8675,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EDATE(A210,1)</f>
         <v>37926</v>
@@ -8700,7 +8702,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>193</v>
@@ -8720,7 +8722,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>37956</v>
@@ -8745,7 +8747,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="48" t="s">
         <v>116</v>
       </c>
@@ -8767,7 +8769,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A215,1)</f>
         <v>37987</v>
@@ -8794,7 +8796,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>221</v>
@@ -8811,7 +8813,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <f>EDATE(A217,1)</f>
         <v>38018</v>
@@ -8836,7 +8838,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f t="shared" si="2"/>
         <v>38047</v>
@@ -8861,7 +8863,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f t="shared" si="2"/>
         <v>38078</v>
@@ -8886,7 +8888,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -8911,7 +8913,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -8938,7 +8940,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>68</v>
@@ -8960,7 +8962,7 @@
         <v>38161</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>220</v>
@@ -8980,7 +8982,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f>EDATE(A223,1)</f>
         <v>38169</v>
@@ -9005,7 +9007,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -9032,7 +9034,7 @@
         <v>38203</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>68</v>
@@ -9054,7 +9056,7 @@
         <v>38212</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>180</v>
@@ -9074,7 +9076,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>85</v>
@@ -9093,7 +9095,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <f>EDATE(A227,1)</f>
         <v>38231</v>
@@ -9118,7 +9120,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f t="shared" si="2"/>
         <v>38261</v>
@@ -9145,7 +9147,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>135</v>
@@ -9165,7 +9167,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>38292</v>
@@ -9192,7 +9194,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>225</v>
@@ -9212,7 +9214,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>38322</v>
@@ -9239,7 +9241,7 @@
         <v>38330</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>85</v>
@@ -9261,7 +9263,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>226</v>
@@ -9281,7 +9283,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>115</v>
       </c>
@@ -9303,7 +9305,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>38353</v>
@@ -9328,7 +9330,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f t="shared" ref="A241:A347" si="3">EDATE(A240,1)</f>
         <v>38384</v>
@@ -9349,7 +9351,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f t="shared" si="3"/>
         <v>38412</v>
@@ -9376,7 +9378,7 @@
         <v>38419</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>229</v>
@@ -9396,7 +9398,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f>EDATE(A242,1)</f>
         <v>38443</v>
@@ -9421,7 +9423,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>50</v>
@@ -9441,7 +9443,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>38473</v>
@@ -9468,7 +9470,7 @@
         <v>38491</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>231</v>
@@ -9488,7 +9490,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -9508,7 +9510,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <f>EDATE(A246,1)</f>
         <v>38504</v>
@@ -9533,7 +9535,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f t="shared" si="3"/>
         <v>38534</v>
@@ -9560,7 +9562,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>232</v>
@@ -9580,7 +9582,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>79</v>
@@ -9602,7 +9604,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>50</v>
@@ -9622,7 +9624,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A250,1)</f>
         <v>38565</v>
@@ -9647,7 +9649,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f t="shared" si="3"/>
         <v>38596</v>
@@ -9674,7 +9676,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>240</v>
@@ -9693,7 +9695,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>241</v>
@@ -9710,7 +9712,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <f>EDATE(A255,1)</f>
         <v>38626</v>
@@ -9735,7 +9737,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f t="shared" si="3"/>
         <v>38657</v>
@@ -9762,7 +9764,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>242</v>
@@ -9782,7 +9784,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>38687</v>
@@ -9807,7 +9809,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>85</v>
@@ -9829,7 +9831,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>243</v>
@@ -9849,7 +9851,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="48" t="s">
         <v>114</v>
       </c>
@@ -9871,7 +9873,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A261,1)</f>
         <v>38718</v>
@@ -9896,7 +9898,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>244</v>
@@ -9913,7 +9915,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f>EDATE(A265,1)</f>
         <v>38749</v>
@@ -9938,7 +9940,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f t="shared" si="3"/>
         <v>38777</v>
@@ -9959,7 +9961,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f t="shared" si="3"/>
         <v>38808</v>
@@ -9984,7 +9986,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>68</v>
@@ -10003,7 +10005,7 @@
         <v>38845</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>50</v>
@@ -10020,7 +10022,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>68</v>
@@ -10039,7 +10041,7 @@
         <v>38849</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>38838</v>
@@ -10066,7 +10068,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>50</v>
@@ -10083,7 +10085,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>254</v>
@@ -10100,7 +10102,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EDATE(A273,1)</f>
         <v>38869</v>
@@ -10125,7 +10127,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -10152,7 +10154,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>68</v>
@@ -10174,7 +10176,7 @@
         <v>38912</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>85</v>
@@ -10196,7 +10198,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>256</v>
@@ -10216,7 +10218,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <f>EDATE(A277,1)</f>
         <v>38930</v>
@@ -10243,7 +10245,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>240</v>
@@ -10265,7 +10267,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>258</v>
@@ -10285,7 +10287,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A281,1)</f>
         <v>38961</v>
@@ -10310,7 +10312,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <f t="shared" si="3"/>
         <v>38991</v>
@@ -10335,7 +10337,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -10362,7 +10364,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>68</v>
@@ -10381,7 +10383,7 @@
         <v>39041</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>261</v>
@@ -10398,7 +10400,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f>EDATE(A286,1)</f>
         <v>39052</v>
@@ -10423,7 +10425,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="48" t="s">
         <v>113</v>
       </c>
@@ -10445,7 +10447,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A289,1)</f>
         <v>39083</v>
@@ -10472,7 +10474,7 @@
         <v>39093</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>68</v>
@@ -10491,7 +10493,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>85</v>
@@ -10510,7 +10512,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>263</v>
@@ -10527,7 +10529,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f>EDATE(A291,1)</f>
         <v>39114</v>
@@ -10552,7 +10554,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f t="shared" si="3"/>
         <v>39142</v>
@@ -10579,7 +10581,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>50</v>
@@ -10599,7 +10601,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>68</v>
@@ -10621,7 +10623,7 @@
         <v>39167</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>85</v>
@@ -10643,7 +10645,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>270</v>
@@ -10663,7 +10665,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A296,1)</f>
         <v>39173</v>
@@ -10688,7 +10690,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f t="shared" si="3"/>
         <v>39203</v>
@@ -10715,7 +10717,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>89</v>
@@ -10737,7 +10739,7 @@
         <v>39219</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>85</v>
@@ -10759,7 +10761,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -10779,7 +10781,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>272</v>
@@ -10799,7 +10801,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A302,1)</f>
         <v>39234</v>
@@ -10824,7 +10826,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f t="shared" si="3"/>
         <v>39264</v>
@@ -10849,7 +10851,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f t="shared" si="3"/>
         <v>39295</v>
@@ -10874,7 +10876,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f t="shared" si="3"/>
         <v>39326</v>
@@ -10901,7 +10903,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>129</v>
@@ -10923,7 +10925,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>275</v>
@@ -10943,7 +10945,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A310,1)</f>
         <v>39356</v>
@@ -10970,7 +10972,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>68</v>
@@ -10992,7 +10994,7 @@
         <v>39360</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>285</v>
@@ -11009,7 +11011,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="50"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A313,1)</f>
         <v>39387</v>
@@ -11034,7 +11036,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f t="shared" si="3"/>
         <v>39417</v>
@@ -11059,7 +11061,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="48" t="s">
         <v>112</v>
       </c>
@@ -11081,7 +11083,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f>EDATE(A317,1)</f>
         <v>39448</v>
@@ -11106,7 +11108,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>50</v>
@@ -11123,7 +11125,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -11140,7 +11142,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <f>EDATE(A319,1)</f>
         <v>39479</v>
@@ -11165,7 +11167,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f t="shared" si="3"/>
         <v>39508</v>
@@ -11190,7 +11192,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f t="shared" si="3"/>
         <v>39539</v>
@@ -11211,7 +11213,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f t="shared" si="3"/>
         <v>39569</v>
@@ -11232,7 +11234,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f t="shared" si="3"/>
         <v>39600</v>
@@ -11253,7 +11255,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f t="shared" si="3"/>
         <v>39630</v>
@@ -11274,7 +11276,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -11301,7 +11303,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>58</v>
@@ -11318,7 +11320,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f>EDATE(A328,1)</f>
         <v>39692</v>
@@ -11345,7 +11347,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f t="shared" si="3"/>
         <v>39722</v>
@@ -11370,7 +11372,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <f t="shared" si="3"/>
         <v>39753</v>
@@ -11395,7 +11397,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f t="shared" si="3"/>
         <v>39783</v>
@@ -11420,7 +11422,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="48" t="s">
         <v>111</v>
       </c>
@@ -11442,7 +11444,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f>EDATE(A333,1)</f>
         <v>39814</v>
@@ -11467,7 +11469,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f t="shared" si="3"/>
         <v>39845</v>
@@ -11492,7 +11494,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <f t="shared" si="3"/>
         <v>39873</v>
@@ -11517,7 +11519,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f t="shared" si="3"/>
         <v>39904</v>
@@ -11542,7 +11544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f>EDATE(A338,1)</f>
         <v>39934</v>
@@ -11569,7 +11571,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>68</v>
@@ -11591,7 +11593,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>39965</v>
@@ -11612,7 +11614,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <f t="shared" si="3"/>
         <v>39995</v>
@@ -11633,7 +11635,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f t="shared" si="3"/>
         <v>40026</v>
@@ -11660,7 +11662,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>68</v>
@@ -11682,7 +11684,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f>EDATE(A343,1)</f>
         <v>40057</v>
@@ -11703,7 +11705,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f t="shared" si="3"/>
         <v>40087</v>
@@ -11724,7 +11726,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <f t="shared" si="3"/>
         <v>40118</v>
@@ -11751,7 +11753,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f>EDATE(A347,1)</f>
         <v>40148</v>
@@ -11776,7 +11778,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="48" t="s">
         <v>110</v>
       </c>
@@ -11798,7 +11800,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A348,1)</f>
         <v>40179</v>
@@ -11819,7 +11821,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" ref="A351:A437" si="4">EDATE(A350,1)</f>
         <v>40210</v>
@@ -11840,7 +11842,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f t="shared" si="4"/>
         <v>40238</v>
@@ -11867,7 +11869,7 @@
         <v>40260</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>50</v>
@@ -11887,7 +11889,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f>EDATE(A352,1)</f>
         <v>40269</v>
@@ -11914,7 +11916,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>50</v>
@@ -11934,7 +11936,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>40299</v>
@@ -11961,7 +11963,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>85</v>
@@ -11983,7 +11985,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <f>EDATE(A356,1)</f>
         <v>40330</v>
@@ -12004,7 +12006,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <f t="shared" si="4"/>
         <v>40360</v>
@@ -12025,7 +12027,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <f t="shared" si="4"/>
         <v>40391</v>
@@ -12052,7 +12054,7 @@
         <v>40413</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>50</v>
@@ -12072,7 +12074,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f>EDATE(A360,1)</f>
         <v>40422</v>
@@ -12099,7 +12101,7 @@
         <v>40434</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>68</v>
@@ -12121,7 +12123,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <f>EDATE(A362,1)</f>
         <v>40452</v>
@@ -12148,7 +12150,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>310</v>
@@ -12168,7 +12170,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f>EDATE(A364,1)</f>
         <v>40483</v>
@@ -12195,7 +12197,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>311</v>
@@ -12215,7 +12217,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <f>EDATE(A366,1)</f>
         <v>40513</v>
@@ -12242,7 +12244,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>132</v>
@@ -12264,7 +12266,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>68</v>
@@ -12286,7 +12288,7 @@
         <v>40540</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>312</v>
@@ -12306,7 +12308,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="48" t="s">
         <v>109</v>
       </c>
@@ -12328,7 +12330,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <f>EDATE(A368,1)</f>
         <v>40544</v>
@@ -12353,7 +12355,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f t="shared" si="4"/>
         <v>40575</v>
@@ -12378,7 +12380,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>85</v>
@@ -12400,7 +12402,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>315</v>
@@ -12420,7 +12422,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f>EDATE(A374,1)</f>
         <v>40603</v>
@@ -12447,7 +12449,7 @@
         <v>40611</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>316</v>
@@ -12467,7 +12469,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A377,1)</f>
         <v>40634</v>
@@ -12494,7 +12496,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>317</v>
@@ -12514,7 +12516,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <f>EDATE(A379,1)</f>
         <v>40664</v>
@@ -12539,7 +12541,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>85</v>
@@ -12561,7 +12563,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>318</v>
@@ -12581,7 +12583,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <f>EDATE(A381,1)</f>
         <v>40695</v>
@@ -12606,7 +12608,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f t="shared" si="4"/>
         <v>40725</v>
@@ -12631,7 +12633,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f t="shared" si="4"/>
         <v>40756</v>
@@ -12656,7 +12658,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <f t="shared" si="4"/>
         <v>40787</v>
@@ -12681,7 +12683,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f t="shared" si="4"/>
         <v>40817</v>
@@ -12708,7 +12710,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>326</v>
@@ -12728,7 +12730,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>68</v>
@@ -12750,7 +12752,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>40848</v>
@@ -12775,7 +12777,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <f t="shared" si="4"/>
         <v>40878</v>
@@ -12802,7 +12804,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>68</v>
@@ -12824,7 +12826,7 @@
         <v>40890</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>291</v>
@@ -12844,7 +12846,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>328</v>
@@ -12864,7 +12866,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="48" t="s">
         <v>108</v>
       </c>
@@ -12886,7 +12888,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f>EDATE(A392,1)</f>
         <v>40909</v>
@@ -12913,7 +12915,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <f t="shared" si="4"/>
         <v>40940</v>
@@ -12940,7 +12942,7 @@
         <v>40959</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>50</v>
@@ -12960,7 +12962,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <f>EDATE(A398,1)</f>
         <v>40969</v>
@@ -12987,7 +12989,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>68</v>
@@ -13009,7 +13011,7 @@
         <v>40998</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>50</v>
@@ -13029,7 +13031,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <f>EDATE(A400,1)</f>
         <v>41000</v>
@@ -13056,7 +13058,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>48</v>
@@ -13076,7 +13078,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>85</v>
@@ -13098,7 +13100,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f>EDATE(A403,1)</f>
         <v>41030</v>
@@ -13123,7 +13125,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>68</v>
@@ -13145,7 +13147,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>57</v>
@@ -13162,7 +13164,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f>EDATE(A406,1)</f>
         <v>41061</v>
@@ -13187,7 +13189,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <f>EDATE(A409,1)</f>
         <v>41091</v>
@@ -13212,7 +13214,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>68</v>
@@ -13234,7 +13236,7 @@
         <v>41095</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f>EDATE(A410,1)</f>
         <v>41122</v>
@@ -13261,7 +13263,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>68</v>
@@ -13280,7 +13282,7 @@
         <v>41138</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>337</v>
@@ -13297,7 +13299,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <f>EDATE(A412,1)</f>
         <v>41153</v>
@@ -13322,7 +13324,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <f t="shared" si="4"/>
         <v>41183</v>
@@ -13347,7 +13349,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -13372,7 +13374,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23"/>
       <c r="B418" s="20" t="s">
         <v>68</v>
@@ -13394,7 +13396,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <f>EDATE(A417,1)</f>
         <v>41244</v>
@@ -13419,7 +13421,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="48" t="s">
         <v>107</v>
       </c>
@@ -13441,7 +13443,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <f>EDATE(A419,1)</f>
         <v>41275</v>
@@ -13466,7 +13468,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f t="shared" si="4"/>
         <v>41306</v>
@@ -13487,7 +13489,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <f t="shared" si="4"/>
         <v>41334</v>
@@ -13512,7 +13514,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <f t="shared" si="4"/>
         <v>41365</v>
@@ -13537,7 +13539,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>159</v>
@@ -13556,7 +13558,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>132</v>
@@ -13575,7 +13577,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>50</v>
@@ -13592,7 +13594,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>50</v>
@@ -13609,7 +13611,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>341</v>
@@ -13629,7 +13631,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f>EDATE(A424,1)</f>
         <v>41395</v>
@@ -13656,7 +13658,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>351</v>
@@ -13676,7 +13678,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>41426</v>
@@ -13701,7 +13703,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <f t="shared" si="4"/>
         <v>41456</v>
@@ -13722,7 +13724,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f t="shared" si="4"/>
         <v>41487</v>
@@ -13747,7 +13749,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -13772,7 +13774,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <f t="shared" si="4"/>
         <v>41548</v>
@@ -13797,7 +13799,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <f t="shared" si="4"/>
         <v>41579</v>
@@ -13824,7 +13826,7 @@
         <v>41597</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>356</v>
@@ -13844,7 +13846,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f>EDATE(A437,1)</f>
         <v>41609</v>
@@ -13871,7 +13873,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>357</v>
@@ -13891,7 +13893,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="48" t="s">
         <v>106</v>
       </c>
@@ -13913,7 +13915,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <f>EDATE(A439,1)</f>
         <v>41640</v>
@@ -13940,7 +13942,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>358</v>
@@ -13960,7 +13962,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f>EDATE(A442,1)</f>
         <v>41671</v>
@@ -13985,7 +13987,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <f t="shared" ref="A445:A457" si="5">EDATE(A444,1)</f>
         <v>41699</v>
@@ -14006,7 +14008,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <f t="shared" si="5"/>
         <v>41730</v>
@@ -14031,7 +14033,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <f t="shared" si="5"/>
         <v>41760</v>
@@ -14056,7 +14058,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>208</v>
@@ -14078,7 +14080,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f>EDATE(A447,1)</f>
         <v>41791</v>
@@ -14103,7 +14105,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <f t="shared" si="5"/>
         <v>41821</v>
@@ -14124,7 +14126,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f t="shared" si="5"/>
         <v>41852</v>
@@ -14149,7 +14151,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <f t="shared" si="5"/>
         <v>41883</v>
@@ -14176,7 +14178,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>367</v>
@@ -14196,7 +14198,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <f>EDATE(A452,1)</f>
         <v>41913</v>
@@ -14221,7 +14223,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>129</v>
@@ -14243,7 +14245,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <f>EDATE(A454,1)</f>
         <v>41944</v>
@@ -14268,7 +14270,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <f t="shared" si="5"/>
         <v>41974</v>
@@ -14293,7 +14295,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>68</v>
@@ -14313,7 +14315,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23"/>
       <c r="B459" s="20" t="s">
         <v>370</v>
@@ -14333,7 +14335,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="48" t="s">
         <v>43</v>
       </c>
@@ -14355,7 +14357,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>42005</v>
       </c>
@@ -14379,7 +14381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>49</v>
@@ -14399,7 +14401,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>42036</v>
       </c>
@@ -14419,7 +14421,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42064</v>
       </c>
@@ -14439,7 +14441,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>42095</v>
       </c>
@@ -14459,7 +14461,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>42125</v>
       </c>
@@ -14483,7 +14485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>51</v>
@@ -14503,7 +14505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>52</v>
@@ -14523,7 +14525,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>42156</v>
       </c>
@@ -14543,7 +14545,7 @@
       <c r="J469" s="12"/>
       <c r="K469" s="15"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>42186</v>
       </c>
@@ -14563,7 +14565,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>42217</v>
       </c>
@@ -14587,7 +14589,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>42248</v>
       </c>
@@ -14611,7 +14613,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>42278</v>
       </c>
@@ -14635,7 +14637,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>42309</v>
       </c>
@@ -14661,7 +14663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>60</v>
@@ -14681,7 +14683,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>42339</v>
       </c>
@@ -14705,7 +14707,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="48" t="s">
         <v>44</v>
       </c>
@@ -14727,7 +14729,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>42370</v>
       </c>
@@ -14747,7 +14749,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>42401</v>
       </c>
@@ -14771,7 +14773,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>42430</v>
       </c>
@@ -14791,7 +14793,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>42461</v>
       </c>
@@ -14815,7 +14817,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>64</v>
@@ -14835,7 +14837,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42491</v>
       </c>
@@ -14859,7 +14861,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42522</v>
       </c>
@@ -14883,7 +14885,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>42552</v>
       </c>
@@ -14903,7 +14905,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>42583</v>
       </c>
@@ -14927,7 +14929,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>42614</v>
       </c>
@@ -14951,7 +14953,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>68</v>
@@ -14973,7 +14975,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>69</v>
@@ -14993,7 +14995,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>42644</v>
       </c>
@@ -15017,7 +15019,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>72</v>
@@ -15037,7 +15039,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42675</v>
       </c>
@@ -15061,7 +15063,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>42705</v>
       </c>
@@ -15085,7 +15087,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>74</v>
@@ -15105,7 +15107,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="48" t="s">
         <v>45</v>
       </c>
@@ -15127,7 +15129,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>42736</v>
       </c>
@@ -15151,7 +15153,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>42767</v>
       </c>
@@ -15175,7 +15177,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>42795</v>
       </c>
@@ -15199,7 +15201,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>42826</v>
       </c>
@@ -15219,7 +15221,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>42856</v>
       </c>
@@ -15239,7 +15241,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>42887</v>
       </c>
@@ -15259,7 +15261,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>42917</v>
       </c>
@@ -15279,7 +15281,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>42948</v>
       </c>
@@ -15303,7 +15305,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42979</v>
       </c>
@@ -15323,7 +15325,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43009</v>
       </c>
@@ -15347,7 +15349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>72</v>
@@ -15367,7 +15369,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>43040</v>
       </c>
@@ -15387,7 +15389,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43070</v>
       </c>
@@ -15413,7 +15415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="48" t="s">
         <v>46</v>
       </c>
@@ -15435,7 +15437,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>43101</v>
       </c>
@@ -15455,7 +15457,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43132</v>
       </c>
@@ -15479,7 +15481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>50</v>
@@ -15499,7 +15501,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43160</v>
       </c>
@@ -15519,7 +15521,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43191</v>
       </c>
@@ -15539,7 +15541,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43221</v>
       </c>
@@ -15565,7 +15567,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>50</v>
@@ -15587,7 +15589,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>85</v>
@@ -15609,7 +15611,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>86</v>
@@ -15631,7 +15633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>87</v>
@@ -15651,7 +15653,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>43252</v>
       </c>
@@ -15673,7 +15675,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43282</v>
       </c>
@@ -15693,7 +15695,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43313</v>
       </c>
@@ -15719,7 +15721,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>90</v>
@@ -15739,7 +15741,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43344</v>
       </c>
@@ -15759,7 +15761,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43374</v>
       </c>
@@ -15785,7 +15787,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43405</v>
       </c>
@@ -15805,7 +15807,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43435</v>
       </c>
@@ -15831,7 +15833,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="48" t="s">
         <v>47</v>
       </c>
@@ -15853,7 +15855,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43466</v>
       </c>
@@ -15877,7 +15879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43497</v>
       </c>
@@ -15901,7 +15903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43525</v>
       </c>
@@ -15921,7 +15923,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43556</v>
       </c>
@@ -15941,7 +15943,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43586</v>
       </c>
@@ -15965,7 +15967,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43617</v>
       </c>
@@ -15985,7 +15987,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>43647</v>
       </c>
@@ -16005,7 +16007,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>43678</v>
       </c>
@@ -16025,7 +16027,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43709</v>
       </c>
@@ -16045,7 +16047,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>43739</v>
       </c>
@@ -16065,7 +16067,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>43770</v>
       </c>
@@ -16085,7 +16087,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>43800</v>
       </c>
@@ -16111,7 +16113,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>48</v>
@@ -16131,7 +16133,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="48" t="s">
         <v>97</v>
       </c>
@@ -16149,7 +16151,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>43831</v>
       </c>
@@ -16173,7 +16175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f>EDATE(A543,1)</f>
         <v>43862</v>
@@ -16194,9 +16196,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <f t="shared" ref="A545:A589" si="6">EDATE(A544,1)</f>
+        <f t="shared" ref="A545:A593" si="6">EDATE(A544,1)</f>
         <v>43891</v>
       </c>
       <c r="B545" s="20"/>
@@ -16215,7 +16217,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="6"/>
         <v>43922</v>
@@ -16236,7 +16238,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <f t="shared" si="6"/>
         <v>43952</v>
@@ -16257,7 +16259,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <f t="shared" si="6"/>
         <v>43983</v>
@@ -16278,7 +16280,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f t="shared" si="6"/>
         <v>44013</v>
@@ -16299,7 +16301,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f t="shared" si="6"/>
         <v>44044</v>
@@ -16320,7 +16322,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <f t="shared" si="6"/>
         <v>44075</v>
@@ -16341,7 +16343,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <f t="shared" si="6"/>
         <v>44105</v>
@@ -16362,7 +16364,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f t="shared" si="6"/>
         <v>44136</v>
@@ -16383,7 +16385,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f t="shared" si="6"/>
         <v>44166</v>
@@ -16408,7 +16410,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="48" t="s">
         <v>102</v>
       </c>
@@ -16426,7 +16428,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <f>EDATE(A554,1)</f>
         <v>44197</v>
@@ -16447,7 +16449,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f t="shared" si="6"/>
         <v>44228</v>
@@ -16468,7 +16470,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f t="shared" si="6"/>
         <v>44256</v>
@@ -16489,7 +16491,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f t="shared" si="6"/>
         <v>44287</v>
@@ -16510,7 +16512,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f t="shared" si="6"/>
         <v>44317</v>
@@ -16531,7 +16533,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <f t="shared" si="6"/>
         <v>44348</v>
@@ -16552,7 +16554,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <f t="shared" si="6"/>
         <v>44378</v>
@@ -16573,7 +16575,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f t="shared" si="6"/>
         <v>44409</v>
@@ -16594,7 +16596,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f t="shared" si="6"/>
         <v>44440</v>
@@ -16615,7 +16617,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" si="6"/>
         <v>44470</v>
@@ -16636,7 +16638,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="6"/>
         <v>44501</v>
@@ -16657,7 +16659,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" si="6"/>
         <v>44531</v>
@@ -16682,7 +16684,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="48" t="s">
         <v>103</v>
       </c>
@@ -16700,7 +16702,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <f>EDATE(A567,1)</f>
         <v>44562</v>
@@ -16721,7 +16723,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <f t="shared" si="6"/>
         <v>44593</v>
@@ -16742,7 +16744,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <f t="shared" si="6"/>
         <v>44621</v>
@@ -16763,7 +16765,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <f t="shared" si="6"/>
         <v>44652</v>
@@ -16784,7 +16786,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <f t="shared" si="6"/>
         <v>44682</v>
@@ -16805,7 +16807,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <f t="shared" si="6"/>
         <v>44713</v>
@@ -16826,7 +16828,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <f t="shared" si="6"/>
         <v>44743</v>
@@ -16847,7 +16849,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f t="shared" si="6"/>
         <v>44774</v>
@@ -16868,7 +16870,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <f t="shared" si="6"/>
         <v>44805</v>
@@ -16889,7 +16891,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <f t="shared" si="6"/>
         <v>44835</v>
@@ -16910,7 +16912,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <f t="shared" si="6"/>
         <v>44866</v>
@@ -16931,7 +16933,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <f t="shared" si="6"/>
         <v>44896</v>
@@ -16956,7 +16958,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="48" t="s">
         <v>104</v>
       </c>
@@ -16974,7 +16976,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <f>EDATE(A580,1)</f>
         <v>44927</v>
@@ -16995,7 +16997,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <f t="shared" si="6"/>
         <v>44958</v>
@@ -17016,7 +17018,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <f t="shared" si="6"/>
         <v>44986</v>
@@ -17037,7 +17039,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <f t="shared" si="6"/>
         <v>45017</v>
@@ -17058,7 +17060,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <f t="shared" si="6"/>
         <v>45047</v>
@@ -17083,84 +17085,102 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <f t="shared" si="6"/>
         <v>45078</v>
       </c>
       <c r="B587" s="20"/>
-      <c r="C587" s="13"/>
+      <c r="C587" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G587" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <f t="shared" si="6"/>
         <v>45108</v>
       </c>
       <c r="B588" s="20"/>
-      <c r="C588" s="13"/>
+      <c r="C588" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D588" s="39"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G588" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f t="shared" si="6"/>
         <v>45139</v>
       </c>
       <c r="B589" s="20"/>
-      <c r="C589" s="13"/>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A590" s="40"/>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40">
+        <f t="shared" si="6"/>
+        <v>45170</v>
+      </c>
       <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A591" s="40"/>
-      <c r="B591" s="20"/>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="40">
+        <f t="shared" si="6"/>
+        <v>45200</v>
+      </c>
+      <c r="B591" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="C591" s="13"/>
-      <c r="D591" s="39"/>
+      <c r="D591" s="39">
+        <v>4</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
       <c r="G591" s="13" t="str">
@@ -17170,10 +17190,15 @@
       <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A592" s="40"/>
+      <c r="K591" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="40">
+        <f t="shared" si="6"/>
+        <v>45231</v>
+      </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
@@ -17188,8 +17213,11 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A593" s="40"/>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593" s="40">
+        <f t="shared" si="6"/>
+        <v>45261</v>
+      </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
       <c r="D593" s="39"/>
@@ -17204,7 +17232,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17220,7 +17248,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17236,7 +17264,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17252,7 +17280,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17268,7 +17296,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17284,7 +17312,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17300,7 +17328,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17316,7 +17344,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17332,7 +17360,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17348,7 +17376,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17364,7 +17392,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17380,7 +17408,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="41"/>
       <c r="B605" s="15"/>
       <c r="C605" s="42"/>
@@ -17411,10 +17439,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17437,7 +17465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17445,21 +17473,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -17472,7 +17500,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17501,7 +17529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17527,17 +17555,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17558,7 +17586,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17585,7 +17613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17611,7 +17639,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17637,7 +17665,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17663,7 +17691,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17689,7 +17717,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17715,7 +17743,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17741,7 +17769,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17767,7 +17795,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17787,7 +17815,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17807,7 +17835,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17827,7 +17855,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17848,7 +17876,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17869,7 +17897,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17890,7 +17918,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17911,7 +17939,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17932,7 +17960,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17953,7 +17981,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17974,7 +18002,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17995,7 +18023,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18016,7 +18044,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18037,7 +18065,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18058,7 +18086,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18079,7 +18107,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18100,7 +18128,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18121,7 +18149,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18142,7 +18170,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18163,7 +18191,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18184,7 +18212,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18205,7 +18233,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18226,7 +18254,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18247,7 +18275,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18256,7 +18284,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18265,7 +18293,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18274,7 +18302,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18283,7 +18311,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18292,7 +18320,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18301,7 +18329,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18310,7 +18338,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18319,7 +18347,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18328,7 +18356,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18337,7 +18365,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18346,7 +18374,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18355,7 +18383,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18364,7 +18392,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18373,7 +18401,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18382,7 +18410,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18391,7 +18419,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18400,7 +18428,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18409,7 +18437,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18418,7 +18446,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18427,7 +18455,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18436,7 +18464,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18445,7 +18473,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18454,7 +18482,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18463,7 +18491,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18472,7 +18500,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18481,7 +18509,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18490,7 +18518,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18499,7 +18527,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18508,7 +18536,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
